--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -11,16 +11,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>K.J. Somaiya Institute of Applied Agricultural Research</t>
+  </si>
+  <si>
+    <t>Taluk: Rabakavi-Banahatti</t>
+  </si>
+  <si>
+    <t>Sameerwadi-587 316</t>
+  </si>
+  <si>
+    <t>Dt: Bagalkot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -30,6 +39,13 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -55,9 +71,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -69,15 +88,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="1" max="1" width="6.6" customWidth="1"/>
+    <col min="2" max="2" width="12.8" customWidth="1"/>
+    <col min="3" max="3" width="12.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1">
@@ -94,9 +113,30 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -59,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,16 +67,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyFont="1" fontId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -94,9 +104,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.6" customWidth="1"/>
-    <col min="2" max="2" width="12.8" customWidth="1"/>
-    <col min="3" max="3" width="12.8" customWidth="1"/>
+    <col min="1" max="1" width="7.4" customWidth="1"/>
+    <col min="2" max="2" width="13.1" customWidth="1"/>
+    <col min="3" max="3" width="13.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" customHeight="1">
@@ -114,22 +124,22 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>K.J. Somaiya Institute of Applied Agricultural Research</t>
   </si>
@@ -24,12 +24,15 @@
   <si>
     <t>Dt: Bagalkot</t>
   </si>
+  <si>
+    <t>  Farmer Name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -45,6 +48,12 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -78,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -89,6 +98,10 @@
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyFont="1" fontId="3"/>
+    <xf applyFont="1" fontId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,7 +111,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -141,12 +154,21 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
+    <row r="3" ht="14" customHeight="1"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>K.J. Somaiya Institute of Applied Agricultural Research</t>
   </si>
@@ -25,7 +25,31 @@
     <t>Dt: Bagalkot</t>
   </si>
   <si>
-    <t>  Farmer Name</t>
+    <t>Farmer Name</t>
+  </si>
+  <si>
+    <t>Name of the farmer</t>
+  </si>
+  <si>
+    <t>Cultivator Code</t>
+  </si>
+  <si>
+    <t>Cluster/Village</t>
+  </si>
+  <si>
+    <t>Cluster Name</t>
+  </si>
+  <si>
+    <t>Survey No.</t>
+  </si>
+  <si>
+    <t>B 93</t>
+  </si>
+  <si>
+    <t>Plot no.</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -68,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,6 +107,13 @@
       <bottom style="thick"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -98,9 +129,11 @@
     <xf applyFont="1" fontId="2" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="3"/>
-    <xf applyFont="1" fontId="3" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf applyFont="1" fontId="2" applyBorder="1" borderId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyBorder="1" borderId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -111,7 +144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -155,20 +188,166 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" ht="14" customHeight="1"/>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" ht="24" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="n">
+        <v>153227</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" ht="24" customHeight="1"/>
+    <row r="8" ht="24" customHeight="1"/>
+    <row r="9" ht="24" customHeight="1"/>
+    <row r="10" ht="24" customHeight="1"/>
+    <row r="11" ht="24" customHeight="1"/>
+    <row r="12" ht="24" customHeight="1"/>
+    <row r="13" ht="24" customHeight="1"/>
+    <row r="14" ht="24" customHeight="1"/>
+    <row r="15" ht="24" customHeight="1"/>
+    <row r="16" ht="24" customHeight="1"/>
+    <row r="17" ht="24" customHeight="1"/>
+    <row r="18" ht="24" customHeight="1"/>
+    <row r="19" ht="24" customHeight="1"/>
+    <row r="20" ht="24" customHeight="1"/>
+    <row r="21" ht="24" customHeight="1"/>
+    <row r="22" ht="24" customHeight="1"/>
+    <row r="23" ht="24" customHeight="1"/>
+    <row r="24" ht="24" customHeight="1"/>
+    <row r="25" ht="24" customHeight="1"/>
+    <row r="26" ht="24" customHeight="1"/>
+    <row r="27" ht="24" customHeight="1"/>
+    <row r="28" ht="24" customHeight="1"/>
+    <row r="29" ht="24" customHeight="1"/>
+    <row r="30" ht="24" customHeight="1"/>
+    <row r="31" ht="24" customHeight="1"/>
+    <row r="32" ht="24" customHeight="1"/>
+    <row r="33" ht="24" customHeight="1"/>
+    <row r="34" ht="24" customHeight="1"/>
+    <row r="35" ht="24" customHeight="1"/>
+    <row r="36" ht="24" customHeight="1"/>
+    <row r="37" ht="24" customHeight="1"/>
+    <row r="38" ht="24" customHeight="1"/>
+    <row r="39" ht="24" customHeight="1"/>
+    <row r="40" ht="24" customHeight="1"/>
+    <row r="41" ht="24" customHeight="1"/>
+    <row r="42" ht="24" customHeight="1"/>
+    <row r="43" ht="24" customHeight="1"/>
+    <row r="44" ht="24" customHeight="1"/>
+    <row r="45" ht="24" customHeight="1"/>
+    <row r="46" ht="24" customHeight="1"/>
+    <row r="47" ht="24" customHeight="1"/>
+    <row r="48" ht="24" customHeight="1"/>
+    <row r="49" ht="24" customHeight="1"/>
+    <row r="50" ht="24" customHeight="1"/>
+    <row r="51" ht="24" customHeight="1"/>
+    <row r="52" ht="24" customHeight="1"/>
+    <row r="53" ht="24" customHeight="1"/>
+    <row r="54" ht="24" customHeight="1"/>
+    <row r="55" ht="24" customHeight="1"/>
+    <row r="56" ht="24" customHeight="1"/>
+    <row r="57" ht="24" customHeight="1"/>
+    <row r="58" ht="24" customHeight="1"/>
+    <row r="59" ht="24" customHeight="1"/>
+    <row r="60" ht="24" customHeight="1"/>
+    <row r="61" ht="24" customHeight="1"/>
+    <row r="62" ht="24" customHeight="1"/>
+    <row r="63" ht="24" customHeight="1"/>
+    <row r="64" ht="24" customHeight="1"/>
+    <row r="65" ht="24" customHeight="1"/>
+    <row r="66" ht="24" customHeight="1"/>
+    <row r="67" ht="24" customHeight="1"/>
+    <row r="68" ht="24" customHeight="1"/>
+    <row r="69" ht="24" customHeight="1"/>
+    <row r="70" ht="24" customHeight="1"/>
+    <row r="71" ht="24" customHeight="1"/>
+    <row r="72" ht="24" customHeight="1"/>
+    <row r="73" ht="24" customHeight="1"/>
+    <row r="74" ht="24" customHeight="1"/>
+    <row r="75" ht="24" customHeight="1"/>
+    <row r="76" ht="24" customHeight="1"/>
+    <row r="77" ht="24" customHeight="1"/>
+    <row r="78" ht="24" customHeight="1"/>
+    <row r="79" ht="24" customHeight="1"/>
+    <row r="80" ht="24" customHeight="1"/>
+    <row r="81" ht="24" customHeight="1"/>
+    <row r="82" ht="24" customHeight="1"/>
+    <row r="83" ht="24" customHeight="1"/>
+    <row r="84" ht="24" customHeight="1"/>
+    <row r="85" ht="24" customHeight="1"/>
+    <row r="86" ht="24" customHeight="1"/>
+    <row r="87" ht="24" customHeight="1"/>
+    <row r="88" ht="24" customHeight="1"/>
+    <row r="89" ht="24" customHeight="1"/>
+    <row r="90" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="14">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>K.J. Somaiya Institute of Applied Agricultural Research</t>
   </si>
@@ -50,13 +50,220 @@
   </si>
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>Soil Type</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>Next Crop</t>
+  </si>
+  <si>
+    <t>Irrigation Source</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Date Of Sampling</t>
+  </si>
+  <si>
+    <t>Lab No.</t>
+  </si>
+  <si>
+    <t>Date Of Report</t>
+  </si>
+  <si>
+    <t>Soil Test Result</t>
+  </si>
+  <si>
+    <t>Sr No.</t>
+  </si>
+  <si>
+    <t>Parameter Name</t>
+  </si>
+  <si>
+    <t>Test Value</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>I.Chemical</t>
+  </si>
+  <si>
+    <t>1&gt; pH(2:5)</t>
+  </si>
+  <si>
+    <t>&lt;6.5</t>
+  </si>
+  <si>
+    <t>6.5 - 7.5</t>
+  </si>
+  <si>
+    <t> &gt; 7.5</t>
+  </si>
+  <si>
+    <t>2&gt; Electrical Conductivity(ds/m)</t>
+  </si>
+  <si>
+    <t>&lt;1.0</t>
+  </si>
+  <si>
+    <t>1.0 - 2.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>II.Major/Macronutrients</t>
+  </si>
+  <si>
+    <t>1&gt; Organic Corbon (%)</t>
+  </si>
+  <si>
+    <t>&lt;0.5</t>
+  </si>
+  <si>
+    <t>0.5 - 1.0</t>
+  </si>
+  <si>
+    <t> &gt; 1.0</t>
+  </si>
+  <si>
+    <t>2&gt; Nitrogen(Kg/Acre)-N</t>
+  </si>
+  <si>
+    <t>&lt;112.0</t>
+  </si>
+  <si>
+    <t>112 - 224</t>
+  </si>
+  <si>
+    <t>&gt;224</t>
+  </si>
+  <si>
+    <t>3&gt; Phosphorus(kg/Acre)-P</t>
+  </si>
+  <si>
+    <t>&lt;8.0</t>
+  </si>
+  <si>
+    <t>8.0-20.0</t>
+  </si>
+  <si>
+    <t>&gt;20.0</t>
+  </si>
+  <si>
+    <t>4&gt; Potash(kg.Acre)-K</t>
+  </si>
+  <si>
+    <t>&lt;45.5</t>
+  </si>
+  <si>
+    <t>45.5 - 134</t>
+  </si>
+  <si>
+    <t>&gt;134.0</t>
+  </si>
+  <si>
+    <t>III.Secondary Nutrients</t>
+  </si>
+  <si>
+    <t>1&gt; Calcium(Ca) %</t>
+  </si>
+  <si>
+    <t>&lt;0.1</t>
+  </si>
+  <si>
+    <t>0.1 - 1.0</t>
+  </si>
+  <si>
+    <t>&gt;1.0</t>
+  </si>
+  <si>
+    <t>2&gt; Magnesium(Mg) %</t>
+  </si>
+  <si>
+    <t>0.1 - 0.4</t>
+  </si>
+  <si>
+    <t>&gt;0.4</t>
+  </si>
+  <si>
+    <t>3&gt; Sulphur(S) PPM</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>10 - 20</t>
+  </si>
+  <si>
+    <t>&gt;20</t>
+  </si>
+  <si>
+    <t>IV.Micronutrients</t>
+  </si>
+  <si>
+    <t>1&gt; Copper(cu) PPM</t>
+  </si>
+  <si>
+    <t> --</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>2&gt; Manganese(Mn) PPM</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3&gt; Iron(Fe) PPM</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4&gt; Zinc (Zn) PPM</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>5&gt; Sodium(Na) PPM</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>&lt;8</t>
+  </si>
+  <si>
+    <t>&gt;10</t>
+  </si>
+  <si>
+    <t>8-10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -83,6 +290,13 @@
       <name val="Calibri"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -92,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -114,11 +328,18 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,6 +356,12 @@
     <xf applyFont="1" fontId="3" applyBorder="1" borderId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyFont="1" fontId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="4" applyBorder="1" borderId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -248,30 +475,460 @@
       </c>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" ht="24" customHeight="1"/>
-    <row r="8" ht="24" customHeight="1"/>
-    <row r="9" ht="24" customHeight="1"/>
-    <row r="10" ht="24" customHeight="1"/>
-    <row r="11" ht="24" customHeight="1"/>
-    <row r="12" ht="24" customHeight="1"/>
-    <row r="13" ht="24" customHeight="1"/>
-    <row r="14" ht="24" customHeight="1"/>
-    <row r="15" ht="24" customHeight="1"/>
-    <row r="16" ht="24" customHeight="1"/>
-    <row r="17" ht="24" customHeight="1"/>
-    <row r="18" ht="24" customHeight="1"/>
-    <row r="19" ht="24" customHeight="1"/>
-    <row r="20" ht="24" customHeight="1"/>
-    <row r="21" ht="24" customHeight="1"/>
-    <row r="22" ht="24" customHeight="1"/>
-    <row r="23" ht="24" customHeight="1"/>
-    <row r="24" ht="24" customHeight="1"/>
-    <row r="25" ht="24" customHeight="1"/>
-    <row r="26" ht="24" customHeight="1"/>
-    <row r="27" ht="24" customHeight="1"/>
-    <row r="28" ht="24" customHeight="1"/>
-    <row r="29" ht="24" customHeight="1"/>
-    <row r="30" ht="24" customHeight="1"/>
+    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="n">
+        <v>9999</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="A13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1">
+      <c r="A14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1">
+      <c r="A16" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1">
+      <c r="A17" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1">
+      <c r="A18" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1">
+      <c r="A19" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1">
+      <c r="A21" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="24" customHeight="1">
+      <c r="A22" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1">
+      <c r="A23" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1">
+      <c r="A25" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="24" customHeight="1">
+      <c r="A26" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1">
+      <c r="A27" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1">
+      <c r="A28" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="24" customHeight="1">
+      <c r="A29" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1">
+      <c r="A30" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="31" ht="24" customHeight="1"/>
     <row r="32" ht="24" customHeight="1"/>
     <row r="33" ht="24" customHeight="1"/>
@@ -333,7 +990,7 @@
     <row r="89" ht="24" customHeight="1"/>
     <row r="90" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="64">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -348,6 +1005,56 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>K.J. Somaiya Institute of Applied Agricultural Research</t>
   </si>
   <si>
-    <t>Taluk: Rabakavi-Banahatti</t>
+    <t>Taluka: Rabakavi-Banahatti</t>
   </si>
   <si>
     <t>Sameerwadi-587 316</t>
@@ -28,7 +28,7 @@
     <t>Farmer Name</t>
   </si>
   <si>
-    <t>Name of the farmer</t>
+    <t>NAIK URF PATIL SHARADA RAVASAB</t>
   </si>
   <si>
     <t>Cultivator Code</t>
@@ -37,13 +37,13 @@
     <t>Cluster/Village</t>
   </si>
   <si>
-    <t>Cluster Name</t>
+    <t>MUGALKHOD-(FNW)/PALABHAVI</t>
   </si>
   <si>
     <t>Survey No.</t>
   </si>
   <si>
-    <t>B 93</t>
+    <t>B 193/1</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -55,25 +55,34 @@
     <t>Soil Type</t>
   </si>
   <si>
-    <t>XXXX</t>
+    <t>SOFT</t>
   </si>
   <si>
     <t>Next Crop</t>
   </si>
   <si>
+    <t> -None-</t>
+  </si>
+  <si>
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>XXX</t>
+    <t>CANAL</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
+    <t>2024-03-24</t>
+  </si>
+  <si>
     <t>Lab No.</t>
   </si>
   <si>
     <t>Date Of Report</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
   </si>
   <si>
     <t>Soil Test Result</t>
@@ -464,14 +473,14 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -491,53 +500,53 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="n">
-        <v>9999</v>
+        <v>12369</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -551,31 +560,31 @@
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -592,19 +601,23 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
+      <c r="E13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1">
@@ -612,24 +625,28 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
+      <c r="E14" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -646,19 +663,23 @@
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
+      <c r="E16" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1">
@@ -666,19 +687,23 @@
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
+      <c r="E17" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1">
@@ -686,19 +711,23 @@
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
+      <c r="E18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1">
@@ -706,24 +735,28 @@
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
+      <c r="E19" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -740,19 +773,23 @@
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
+      <c r="E21" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1">
@@ -760,19 +797,23 @@
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
+      <c r="E22" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1">
@@ -780,24 +821,28 @@
         <v>9</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
+      <c r="E23" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -814,19 +859,23 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
+      <c r="E25" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1">
@@ -834,19 +883,23 @@
         <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
+      <c r="E26" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1">
@@ -854,19 +907,23 @@
         <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
+      <c r="E27" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1">
@@ -874,19 +931,23 @@
         <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
+      <c r="E28" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1">
@@ -894,19 +955,23 @@
         <v>14</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
+      <c r="E29" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1">
@@ -914,19 +979,23 @@
         <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
+      <c r="E30" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1"/>
@@ -990,7 +1059,7 @@
     <row r="89" ht="24" customHeight="1"/>
     <row r="90" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="79">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -1023,37 +1092,52 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="H30:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>K.J. Somaiya Institute of Applied Agricultural Research</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Survey No.</t>
   </si>
   <si>
-    <t>193 /1</t>
+    <t>B 193/1</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -67,13 +67,13 @@
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>RIVER</t>
+    <t>CANAL</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-03-25</t>
+    <t>2024-03-26</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -313,7 +313,28 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat.</t>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>Soil Test Based Nutrient Recommendations</t>
+  </si>
+  <si>
+    <t>Sugarcane Season</t>
+  </si>
+  <si>
+    <t>Adsali</t>
+  </si>
+  <si>
+    <t>Pre-seasonal</t>
+  </si>
+  <si>
+    <t>Seasonal</t>
+  </si>
+  <si>
+    <t>Sugarcane Yield Target(tonne/acre)</t>
+  </si>
+  <si>
+    <t>Nutrients (kg/acre)</t>
   </si>
 </sst>
 </file>
@@ -369,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -391,18 +412,11 @@
       <bottom style="thick"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,12 +433,6 @@
     <xf applyFont="1" fontId="4" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyFont="1" fontId="2" applyBorder="1" borderId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyFont="1" fontId="5" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -437,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -448,7 +456,7 @@
     <col min="3" max="3" width="13.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1">
+    <row r="1" spans="1:12" ht="36" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +469,10 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="24" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -479,9 +489,11 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" ht="14" customHeight="1"/>
-    <row r="4" spans="1:10" ht="24" customHeight="1">
+    <row r="4" spans="1:12" ht="24" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -500,8 +512,10 @@
         <v>153227</v>
       </c>
       <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -516,8 +530,10 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -540,8 +556,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -560,8 +578,10 @@
         <v>16</v>
       </c>
       <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -580,8 +600,10 @@
         <v>20</v>
       </c>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -600,8 +622,10 @@
         <v>20</v>
       </c>
       <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -614,8 +638,10 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="24" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -624,22 +650,23 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
+    <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -652,8 +679,10 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="24" customHeight="1">
       <c r="A13" s="2" t="n">
         <v>1</v>
       </c>
@@ -662,22 +691,24 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1">
+    <row r="14" spans="1:12" ht="24" customHeight="1">
       <c r="A14" s="2" t="n">
         <v>2</v>
       </c>
@@ -686,22 +717,24 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
+    <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -714,8 +747,10 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1">
       <c r="A16" s="2" t="n">
         <v>3</v>
       </c>
@@ -724,22 +759,24 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="24" customHeight="1">
+    <row r="17" spans="1:12" ht="24" customHeight="1">
       <c r="A17" s="2" t="n">
         <v>4</v>
       </c>
@@ -748,22 +785,24 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1">
+    <row r="18" spans="1:12" ht="24" customHeight="1">
       <c r="A18" s="2" t="n">
         <v>5</v>
       </c>
@@ -772,22 +811,24 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1">
+    <row r="19" spans="1:12" ht="24" customHeight="1">
       <c r="A19" s="2" t="n">
         <v>6</v>
       </c>
@@ -796,22 +837,24 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1">
+    <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>56</v>
       </c>
@@ -824,8 +867,10 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1">
       <c r="A21" s="2" t="n">
         <v>7</v>
       </c>
@@ -834,22 +879,24 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="n">
-        <v>33</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="24" customHeight="1">
+    <row r="22" spans="1:12" ht="24" customHeight="1">
       <c r="A22" s="2" t="n">
         <v>8</v>
       </c>
@@ -858,22 +905,24 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1">
+    <row r="23" spans="1:12" ht="24" customHeight="1">
       <c r="A23" s="2" t="n">
         <v>9</v>
       </c>
@@ -882,22 +931,24 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1">
+    <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -910,8 +961,10 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="24" customHeight="1">
       <c r="A25" s="2" t="n">
         <v>10</v>
       </c>
@@ -920,22 +973,24 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1">
+    <row r="26" spans="1:12" ht="24" customHeight="1">
       <c r="A26" s="2" t="n">
         <v>11</v>
       </c>
@@ -944,22 +999,24 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1">
+    <row r="27" spans="1:12" ht="24" customHeight="1">
       <c r="A27" s="2" t="n">
         <v>12</v>
       </c>
@@ -968,22 +1025,24 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1">
+    <row r="28" spans="1:12" ht="24" customHeight="1">
       <c r="A28" s="2" t="n">
         <v>13</v>
       </c>
@@ -992,22 +1051,24 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1">
+    <row r="29" spans="1:12" ht="24" customHeight="1">
       <c r="A29" s="2" t="n">
         <v>14</v>
       </c>
@@ -1016,22 +1077,24 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="24" customHeight="1">
       <c r="A30" s="2" t="n">
         <v>15</v>
       </c>
@@ -1040,22 +1103,24 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30" customHeight="1">
+    <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>84</v>
       </c>
@@ -1068,22 +1133,26 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="30" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1">
       <c r="A33" s="2" t="n">
         <v>1</v>
       </c>
@@ -1103,25 +1172,27 @@
         <v>87</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="24" customHeight="1">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:12" ht="24" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" ht="24" customHeight="1">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" ht="24" customHeight="1">
       <c r="A35" s="2" t="n">
         <v>2</v>
       </c>
@@ -1141,11 +1212,11 @@
         <v>87</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="24" customHeight="1">
+    <row r="36" spans="1:12" ht="24" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>90</v>
       </c>
@@ -1162,8 +1233,10 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="24" customHeight="1">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="2" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1253,10 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" ht="24" customHeight="1">
       <c r="A38" s="2" t="n">
         <v>2</v>
       </c>
@@ -1198,8 +1273,10 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" ht="24" customHeight="1">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="24" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>95</v>
       </c>
@@ -1212,8 +1289,10 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="24" customHeight="1">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" ht="24" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>96</v>
       </c>
@@ -1230,8 +1309,10 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="24" customHeight="1">
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="24" customHeight="1">
       <c r="A41" s="2" t="n">
         <v>1</v>
       </c>
@@ -1244,26 +1325,30 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" ht="24" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:10" ht="24" customHeight="1">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="24" customHeight="1">
       <c r="A43" s="2" t="n">
         <v>2</v>
       </c>
@@ -1280,25 +1365,101 @@
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" ht="60" customHeight="1">
-      <c r="A44" s="8" t="s">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" ht="60" customHeight="1">
+      <c r="A44" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" ht="24" customHeight="1"/>
-    <row r="46" ht="24" customHeight="1"/>
-    <row r="47" ht="24" customHeight="1"/>
-    <row r="48" ht="24" customHeight="1"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" ht="24" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" ht="24" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" ht="24" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" ht="24" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
     <row r="49" ht="24" customHeight="1"/>
     <row r="50" ht="24" customHeight="1"/>
     <row r="51" ht="24" customHeight="1"/>
@@ -1342,110 +1503,120 @@
     <row r="89" ht="24" customHeight="1"/>
     <row r="90" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="113">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H2:L2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I4:L4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C5:L5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I6:L6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I8:L8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:J11"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:L32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A34:L34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H36:L36"/>
     <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H37:L37"/>
     <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="A39:L39"/>
     <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H40:L40"/>
     <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="A42:L42"/>
     <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="A48:L48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>K.J. Somaiya Institute of Applied Agricultural Research</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Survey No.</t>
   </si>
   <si>
-    <t>B 193/1</t>
+    <t>193 /1</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -61,19 +61,19 @@
     <t>Next Crop</t>
   </si>
   <si>
-    <t>SUNFLOWER</t>
+    <t>MAIZE</t>
   </si>
   <si>
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>CANAL</t>
+    <t>RIVER</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-03-26</t>
+    <t>2024-03-27</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -253,18 +253,6 @@
     <t> Sodium(Na) PPM</t>
   </si>
   <si>
-    <t>st</t>
-  </si>
-  <si>
-    <t>&lt;8</t>
-  </si>
-  <si>
-    <t>&gt;10</t>
-  </si>
-  <si>
-    <t>8-10</t>
-  </si>
-  <si>
     <t>Recommendations</t>
   </si>
   <si>
@@ -313,7 +301,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>asdf</t>
+    <t>sasasd</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -335,6 +323,54 @@
   </si>
   <si>
     <t>Nutrients (kg/acre)</t>
+  </si>
+  <si>
+    <t>NITROGEN</t>
+  </si>
+  <si>
+    <t>PHOSPHORUS</t>
+  </si>
+  <si>
+    <t>POTASH (K2O)</t>
+  </si>
+  <si>
+    <t>Recommended dose of straight and complext fertilizers (kg/acre)</t>
+  </si>
+  <si>
+    <t>MICRO NUTRIENTS</t>
+  </si>
+  <si>
+    <t>Time Of Application</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>AT PLANTING </t>
+  </si>
+  <si>
+    <t>30-40 DAYS</t>
+  </si>
+  <si>
+    <t>60-75 DAYS</t>
+  </si>
+  <si>
+    <t>100-120 DAYS</t>
+  </si>
+  <si>
+    <t>150-180 DAYS </t>
+  </si>
+  <si>
+    <t>COMBINATION-01</t>
+  </si>
+  <si>
+    <t>COMBINATION-02</t>
+  </si>
+  <si>
+    <t>COMBINATION-03</t>
+  </si>
+  <si>
+    <t>COMBINATION-04</t>
   </si>
 </sst>
 </file>
@@ -445,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -546,14 +582,14 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1094,154 +1130,148 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="24" customHeight="1">
-      <c r="A30" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="1:12" ht="30" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="30" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" ht="24" customHeight="1">
+      <c r="A32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1">
-      <c r="A31" s="5" t="s">
+      <c r="H32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="L32" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="24" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="24" customHeight="1">
+      <c r="A34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" ht="24" customHeight="1">
-      <c r="A33" s="2" t="n">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="L34" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="24" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" ht="24" customHeight="1">
+      <c r="A36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="L33" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="24" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" ht="24" customHeight="1">
-      <c r="A35" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="L35" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="24" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1257,225 +1287,377 @@
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12" ht="24" customHeight="1">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="24" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="24" customHeight="1">
+      <c r="A40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" ht="24" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="24" customHeight="1">
+      <c r="A42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" ht="24" customHeight="1">
-      <c r="A39" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="1:12" ht="24" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" ht="60" customHeight="1">
+      <c r="A43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" ht="24" customHeight="1">
+      <c r="A44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="1:12" ht="24" customHeight="1">
-      <c r="A41" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" ht="24" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="24" customHeight="1">
-      <c r="A43" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" ht="60" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" ht="24" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="G45" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="1:12" ht="24" customHeight="1">
+    <row r="46" spans="1:12" ht="30" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5" t="s">
-        <v>103</v>
+      <c r="D46" s="5" t="n">
+        <v>70</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>104</v>
+      <c r="G46" s="5" t="n">
+        <v>50</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="5" t="s">
-        <v>105</v>
+      <c r="J46" s="5" t="n">
+        <v>40</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" ht="24" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="24" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" ht="24" customHeight="1"/>
-    <row r="50" ht="24" customHeight="1"/>
-    <row r="51" ht="24" customHeight="1"/>
-    <row r="52" ht="24" customHeight="1"/>
-    <row r="53" ht="24" customHeight="1"/>
-    <row r="54" ht="24" customHeight="1"/>
-    <row r="55" ht="24" customHeight="1"/>
-    <row r="56" ht="24" customHeight="1"/>
-    <row r="57" ht="24" customHeight="1"/>
-    <row r="58" ht="24" customHeight="1"/>
-    <row r="59" ht="24" customHeight="1"/>
-    <row r="60" ht="24" customHeight="1"/>
-    <row r="61" ht="24" customHeight="1"/>
-    <row r="62" ht="24" customHeight="1"/>
-    <row r="63" ht="24" customHeight="1"/>
-    <row r="64" ht="24" customHeight="1"/>
+      <c r="D48" s="4" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="24" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="n">
+        <v>93.9</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="24" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="4" t="n">
+        <v>73.9</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" ht="24" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="24" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" ht="24" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" ht="24" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" ht="24" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
     <row r="65" ht="24" customHeight="1"/>
     <row r="66" ht="24" customHeight="1"/>
     <row r="67" ht="24" customHeight="1"/>
@@ -1503,7 +1685,7 @@
     <row r="89" ht="24" customHeight="1"/>
     <row r="90" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="139">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -1580,43 +1762,69 @@
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A30:L30"/>
     <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:L32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:L33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:L35"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="H36:L36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H37:L37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:L39"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="H40:L40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="A43:L43"/>
     <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:L45"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="J46:L46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="WOW" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>K.J. Somaiya Institute of Applied Agricultural Research</t>
   </si>
@@ -43,7 +44,7 @@
     <t>Survey No.</t>
   </si>
   <si>
-    <t>193 /1</t>
+    <t>B 193/1</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -67,13 +68,13 @@
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>RIVER</t>
+    <t>CANAL</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-03-27</t>
+    <t>2024-03-28</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -301,7 +302,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>sasasd</t>
+    <t>asdaeawraf</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -337,10 +338,37 @@
     <t>Recommended dose of straight and complext fertilizers (kg/acre)</t>
   </si>
   <si>
-    <t>MICRO NUTRIENTS</t>
-  </si>
-  <si>
-    <t>Time Of Application</t>
+    <t>COMBINATION-01</t>
+  </si>
+  <si>
+    <t>Time of Application</t>
+  </si>
+  <si>
+    <t>UREA</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>COMBINATION-02</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>COMBINATION-03</t>
+  </si>
+  <si>
+    <t>12 : 32 : 16</t>
+  </si>
+  <si>
+    <t>COMBINATION-04</t>
+  </si>
+  <si>
+    <t>10 : 26 : 26</t>
   </si>
   <si>
     <t>Total</t>
@@ -361,16 +389,13 @@
     <t>150-180 DAYS </t>
   </si>
   <si>
-    <t>COMBINATION-01</t>
-  </si>
-  <si>
-    <t>COMBINATION-02</t>
-  </si>
-  <si>
-    <t>COMBINATION-03</t>
-  </si>
-  <si>
-    <t>COMBINATION-04</t>
+    <t>Micronutrients</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>Quantitiy(kg/acre)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -582,14 +607,14 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1553,26 +1578,26 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="24" customHeight="1">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5" t="s">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -1581,111 +1606,1021 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" ht="24" customHeight="1">
+    <row r="54" spans="1:12" ht="24" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
+      <c r="D54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="24" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
+      <c r="D55" s="4" t="n">
+        <v>205</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="K55" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="L55" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="24" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="D56" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G56" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" s="4" t="n">
+        <v>79</v>
+      </c>
+      <c r="L56" s="4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="24" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="D57" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="G57" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="J57" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K57" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="24" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="D58" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="G58" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="J58" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K58" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="24" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
+      <c r="D59" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="G59" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H59" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="J59" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K59" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="24" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
+      <c r="D60" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="G60" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="J60" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K60" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" ht="24" customHeight="1">
+    <row r="62" spans="1:12" ht="24" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="D62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="24" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="D63" s="4" t="n">
+        <v>268</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>461</v>
+      </c>
+      <c r="F63" s="4" t="n">
+        <v>247</v>
+      </c>
+      <c r="G63" s="4" t="n">
+        <v>173</v>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>306</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>156</v>
+      </c>
+      <c r="J63" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="K63" s="4" t="n">
+        <v>229</v>
+      </c>
+      <c r="L63" s="4" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="24" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-    </row>
-    <row r="65" ht="24" customHeight="1"/>
-    <row r="66" ht="24" customHeight="1"/>
-    <row r="67" ht="24" customHeight="1"/>
-    <row r="68" ht="24" customHeight="1"/>
-    <row r="69" ht="24" customHeight="1"/>
-    <row r="70" ht="24" customHeight="1"/>
-    <row r="71" ht="24" customHeight="1"/>
-    <row r="72" ht="24" customHeight="1"/>
-    <row r="73" ht="24" customHeight="1"/>
-    <row r="74" ht="24" customHeight="1"/>
-    <row r="75" ht="24" customHeight="1"/>
-    <row r="76" ht="24" customHeight="1"/>
-    <row r="77" ht="24" customHeight="1"/>
-    <row r="78" ht="24" customHeight="1"/>
-    <row r="79" ht="24" customHeight="1"/>
-    <row r="80" ht="24" customHeight="1"/>
-    <row r="81" ht="24" customHeight="1"/>
-    <row r="82" ht="24" customHeight="1"/>
-    <row r="83" ht="24" customHeight="1"/>
-    <row r="84" ht="24" customHeight="1"/>
+      <c r="D64" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>461</v>
+      </c>
+      <c r="F64" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H64" s="4" t="n">
+        <v>306</v>
+      </c>
+      <c r="I64" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K64" s="4" t="n">
+        <v>229</v>
+      </c>
+      <c r="L64" s="4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="24" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="G65" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="H65" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="J65" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K65" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="24" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="G66" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="H66" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="J66" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="K66" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="24" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="H67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="J67" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="K67" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="24" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="G68" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="H68" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="J68" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="K68" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" ht="24" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="24" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="4" t="n">
+        <v>177</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>230</v>
+      </c>
+      <c r="F71" s="4" t="n">
+        <v>185</v>
+      </c>
+      <c r="G71" s="4" t="n">
+        <v>113</v>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>153</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>115</v>
+      </c>
+      <c r="J71" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="K71" s="4" t="n">
+        <v>114</v>
+      </c>
+      <c r="L71" s="4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="24" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>230</v>
+      </c>
+      <c r="F72" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G72" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H72" s="4" t="n">
+        <v>153</v>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J72" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K72" s="4" t="n">
+        <v>114</v>
+      </c>
+      <c r="L72" s="4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="24" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J73" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="24" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="G74" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="H74" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J74" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="24" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="G75" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="H75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J75" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="24" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="G76" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="H76" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J76" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K76" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" ht="24" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="24" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="4" t="n">
+        <v>206</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>284</v>
+      </c>
+      <c r="F79" s="4" t="n">
+        <v>124</v>
+      </c>
+      <c r="G79" s="4" t="n">
+        <v>132</v>
+      </c>
+      <c r="H79" s="4" t="n">
+        <v>188</v>
+      </c>
+      <c r="I79" s="4" t="n">
+        <v>74</v>
+      </c>
+      <c r="J79" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="K79" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="L79" s="4" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="24" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>284</v>
+      </c>
+      <c r="F80" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G80" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>188</v>
+      </c>
+      <c r="I80" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="L80" s="4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="24" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G81" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="24" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="H82" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J82" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K82" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="24" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="G83" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H83" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J83" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K83" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="24" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="G84" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="H84" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J84" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K84" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="4" t="n">
+        <v>12</v>
+      </c>
+    </row>
     <row r="85" ht="24" customHeight="1"/>
     <row r="86" ht="24" customHeight="1"/>
     <row r="87" ht="24" customHeight="1"/>
-    <row r="88" ht="24" customHeight="1"/>
-    <row r="89" ht="24" customHeight="1"/>
+    <row r="88" spans="1:12" ht="24" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" ht="24" customHeight="1">
+      <c r="A89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+    </row>
     <row r="90" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="139">
+  <mergeCells count="163">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
@@ -1815,17 +2750,53 @@
     <mergeCell ref="J52:L52"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
     <mergeCell ref="A63:C63"/>
     <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A88:L88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:I89"/>
+    <mergeCell ref="J89:L89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -44,7 +44,7 @@
     <t>Survey No.</t>
   </si>
   <si>
-    <t>B 193/1</t>
+    <t>193 /1</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -62,13 +62,13 @@
     <t>Next Crop</t>
   </si>
   <si>
-    <t>MAIZE</t>
+    <t>SUNFLOWER</t>
   </si>
   <si>
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>CANAL</t>
+    <t>RIVER</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
@@ -302,7 +302,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>asdaeawraf</t>
+    <t>adsfqwer</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -607,14 +607,14 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -44,7 +44,7 @@
     <t>Survey No.</t>
   </si>
   <si>
-    <t>193 /1</t>
+    <t>B 193/1</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -62,7 +62,7 @@
     <t>Next Crop</t>
   </si>
   <si>
-    <t>SUNFLOWER</t>
+    <t>GROUND NUT</t>
   </si>
   <si>
     <t>Irrigation Source</t>
@@ -74,7 +74,7 @@
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-03-28</t>
+    <t>2024-03-29</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -302,7 +302,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>adsfqwer</t>
+    <t>asdfqwer</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -506,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -607,14 +607,14 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -2579,45 +2579,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" ht="24" customHeight="1"/>
-    <row r="86" ht="24" customHeight="1"/>
+    <row r="85" spans="1:12" ht="24" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" ht="24" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+    </row>
     <row r="87" ht="24" customHeight="1"/>
-    <row r="88" spans="1:12" ht="24" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-    </row>
-    <row r="89" spans="1:12" ht="24" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-    </row>
+    <row r="88" ht="24" customHeight="1"/>
+    <row r="89" ht="24" customHeight="1"/>
     <row r="90" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="163">
@@ -2780,10 +2780,10 @@
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A88:L88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:I89"/>
-    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="A85:L85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="J86:L86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>K.J. Somaiya Institute of Applied Agricultural Research</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Survey No.</t>
   </si>
   <si>
-    <t>B 193/1</t>
+    <t>193 /1</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -56,7 +56,7 @@
     <t>Soil Type</t>
   </si>
   <si>
-    <t>MEDIUM</t>
+    <t>SOFT</t>
   </si>
   <si>
     <t>Next Crop</t>
@@ -68,13 +68,13 @@
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>RIVER</t>
+    <t>CANAL</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-03-29</t>
+    <t>2024-04-02</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -83,9 +83,6 @@
     <t>Date Of Report</t>
   </si>
   <si>
-    <t>2024-03-30</t>
-  </si>
-  <si>
     <t>Soil Test Result</t>
   </si>
   <si>
@@ -305,7 +302,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>asdfadf</t>
+    <t>saf</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -625,7 +622,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -688,7 +685,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="n">
-        <v>12369</v>
+        <v>12406</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -698,7 +695,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -706,7 +703,7 @@
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -722,32 +719,32 @@
     </row>
     <row r="11" spans="1:12" ht="24" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -766,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -777,14 +774,14 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1">
@@ -792,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -803,19 +800,19 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -834,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -845,14 +842,14 @@
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="24" customHeight="1">
@@ -860,25 +857,25 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="n">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="24" customHeight="1">
@@ -886,25 +883,25 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="24" customHeight="1">
@@ -912,30 +909,30 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="n">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -954,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -965,14 +962,14 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="24" customHeight="1">
@@ -980,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -991,14 +988,14 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="24" customHeight="1">
@@ -1006,7 +1003,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1017,19 +1014,19 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1048,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1059,14 +1056,14 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="24" customHeight="1">
@@ -1074,7 +1071,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1085,14 +1082,14 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="24" customHeight="1">
@@ -1100,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1111,14 +1108,14 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="24" customHeight="1">
@@ -1126,7 +1123,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1137,14 +1134,14 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="24" customHeight="1">
@@ -1152,7 +1149,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1163,19 +1160,19 @@
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1191,7 +1188,7 @@
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1210,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1219,19 +1216,19 @@
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="24" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1250,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1259,22 +1256,22 @@
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="24" customHeight="1">
       <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1282,7 +1279,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -1294,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1314,7 +1311,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1331,7 +1328,7 @@
     </row>
     <row r="38" spans="1:12" ht="24" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1347,10 +1344,10 @@
     </row>
     <row r="39" spans="1:12" ht="24" customHeight="1">
       <c r="A39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1358,7 +1355,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1370,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1387,7 +1384,7 @@
     </row>
     <row r="41" spans="1:12" ht="24" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1406,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1423,7 +1420,7 @@
     </row>
     <row r="43" spans="1:12" ht="60" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1439,7 +1436,7 @@
     </row>
     <row r="44" spans="1:12" ht="24" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1455,29 +1452,29 @@
     </row>
     <row r="45" spans="1:12" ht="24" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" ht="30" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1499,7 +1496,7 @@
     </row>
     <row r="47" spans="1:12" ht="24" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1515,73 +1512,73 @@
     </row>
     <row r="48" spans="1:12" ht="24" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4" t="n">
-        <v>124.8</v>
+        <v>255.8</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="n">
-        <v>81.2</v>
+        <v>193.8</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="n">
-        <v>33.6</v>
+        <v>146.2</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
     <row r="49" spans="1:12" ht="24" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="n">
-        <v>148.5</v>
+        <v>184.2</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="n">
-        <v>93.9</v>
+        <v>129.6</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="n">
-        <v>66.6</v>
+        <v>102.3</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
     <row r="50" spans="1:12" ht="24" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="n">
-        <v>74.4</v>
+        <v>83.7</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="n">
-        <v>49.6</v>
+        <v>58.9</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="n">
-        <v>37.2</v>
+        <v>46.5</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
     <row r="51" spans="1:12" ht="24" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1597,1009 +1594,1009 @@
     </row>
     <row r="52" spans="1:12" ht="24" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:12" ht="24" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="G54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="J54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="24" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="n">
-        <v>208</v>
+        <v>484</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="24" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="24" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4" t="n">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="H59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="n">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="H60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="K60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:12" ht="24" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="24" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4" t="n">
-        <v>271</v>
+        <v>556</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="F63" s="4" t="n">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>176</v>
+        <v>421</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="24" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="4" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="F64" s="4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G64" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H64" s="4" t="n">
+        <v>368</v>
+      </c>
+      <c r="I64" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="J64" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="K64" s="4" t="n">
+        <v>290</v>
+      </c>
+      <c r="L64" s="4" t="n">
         <v>17</v>
-      </c>
-      <c r="H64" s="4" t="n">
-        <v>310</v>
-      </c>
-      <c r="I64" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="K64" s="4" t="n">
-        <v>232</v>
-      </c>
-      <c r="L64" s="4" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="24" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="n">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F65" s="4" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="24" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4" t="n">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F66" s="4" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="H66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="4" t="n">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="4" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="K67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4" t="n">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="4" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:12" ht="24" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="24" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="n">
-        <v>180</v>
+        <v>453</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="F71" s="4" t="n">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>115</v>
+        <v>349</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="24" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="4" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="24" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="4" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F73" s="4" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="K73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="24" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="4" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F74" s="4" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="K74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="24" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="4" t="n">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="H75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="K75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="24" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="4" t="n">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F76" s="4" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="H76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="K76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="24" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="24" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="4" t="n">
-        <v>209</v>
+        <v>486</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F79" s="4" t="n">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="24" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="F80" s="4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K80" s="4" t="n">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="24" customHeight="1">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="4" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F81" s="4" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="H81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="4" t="n">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F82" s="4" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="H82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="24" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="n">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="4" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="H83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="K83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="n">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F84" s="4" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="H84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="K84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="24" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -2615,11 +2612,11 @@
     </row>
     <row r="86" spans="1:12" ht="24" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2628,7 +2625,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -2639,7 +2636,7 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2659,7 +2656,7 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2679,7 +2676,7 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2699,7 +2696,7 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2719,7 +2716,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -44,7 +44,7 @@
     <t>Survey No.</t>
   </si>
   <si>
-    <t>193 /1</t>
+    <t>1 /2/3</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -56,25 +56,25 @@
     <t>Soil Type</t>
   </si>
   <si>
-    <t>SOFT</t>
+    <t>MIXED</t>
   </si>
   <si>
     <t>Next Crop</t>
   </si>
   <si>
-    <t>SUNFLOWER</t>
+    <t>GINGER</t>
   </si>
   <si>
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>CANAL</t>
+    <t>FURROW IRRIGATION</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-04-02</t>
+    <t>2024-04-03</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -302,7 +302,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>saf</t>
+    <t>adfasdf</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -685,7 +685,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="n">
-        <v>12406</v>
+        <v>12409</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -770,7 +770,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="n">
-        <v>3</v>
+        <v>693</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
@@ -796,7 +796,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="n">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
@@ -838,7 +838,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -864,7 +864,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
@@ -890,7 +890,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
@@ -916,7 +916,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
@@ -958,7 +958,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
@@ -984,7 +984,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
@@ -1010,7 +1010,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
@@ -1052,7 +1052,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
@@ -1078,7 +1078,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
@@ -1104,7 +1104,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
@@ -1130,7 +1130,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
@@ -1156,7 +1156,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
@@ -1517,17 +1517,17 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4" t="n">
-        <v>255.8</v>
+        <v>301.1</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="n">
-        <v>193.8</v>
+        <v>232.6</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="n">
-        <v>146.2</v>
+        <v>185</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -1539,17 +1539,17 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="n">
-        <v>184.2</v>
+        <v>190.3</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="n">
-        <v>129.6</v>
+        <v>135.7</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="n">
-        <v>102.3</v>
+        <v>108.4</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -1561,17 +1561,17 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="n">
-        <v>83.7</v>
+        <v>80.6</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="n">
-        <v>58.9</v>
+        <v>55.8</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="n">
-        <v>46.5</v>
+        <v>43.4</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -1662,31 +1662,31 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="n">
-        <v>484</v>
+        <v>586</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>371</v>
+        <v>458</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>278</v>
+        <v>365</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="24" customHeight="1">
@@ -1696,31 +1696,31 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="24" customHeight="1">
@@ -1730,31 +1730,31 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4" t="n">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1">
@@ -1764,31 +1764,31 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4" t="n">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1">
@@ -1798,31 +1798,31 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="H59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1">
@@ -1832,31 +1832,31 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="H60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -1907,31 +1907,31 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4" t="n">
-        <v>556</v>
+        <v>654</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="F63" s="4" t="n">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>421</v>
+        <v>505</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>317</v>
+        <v>402</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="24" customHeight="1">
@@ -1941,31 +1941,31 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="F64" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="24" customHeight="1">
@@ -1975,31 +1975,31 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F65" s="4" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="24" customHeight="1">
@@ -2009,31 +2009,31 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F66" s="4" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1">
@@ -2043,31 +2043,31 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="4" t="n">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="4" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="K67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1">
@@ -2077,31 +2077,31 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4" t="n">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="4" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -2152,31 +2152,31 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="n">
-        <v>453</v>
+        <v>556</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F71" s="4" t="n">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="G71" s="4" t="n">
+        <v>437</v>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>179</v>
+      </c>
+      <c r="J71" s="4" t="n">
         <v>349</v>
       </c>
-      <c r="H71" s="4" t="n">
-        <v>184</v>
-      </c>
-      <c r="I71" s="4" t="n">
-        <v>166</v>
-      </c>
-      <c r="J71" s="4" t="n">
-        <v>261</v>
-      </c>
       <c r="K71" s="4" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="24" customHeight="1">
@@ -2186,31 +2186,31 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G72" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="H72" s="4" t="n">
+        <v>174</v>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J72" s="4" t="n">
         <v>34</v>
       </c>
-      <c r="H72" s="4" t="n">
-        <v>184</v>
-      </c>
-      <c r="I72" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J72" s="4" t="n">
-        <v>26</v>
-      </c>
       <c r="K72" s="4" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="24" customHeight="1">
@@ -2220,31 +2220,31 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="4" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F73" s="4" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G73" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="J73" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="H73" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J73" s="4" t="n">
-        <v>52</v>
-      </c>
       <c r="K73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="24" customHeight="1">
@@ -2254,31 +2254,31 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="4" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F74" s="4" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G74" s="4" t="n">
+        <v>87</v>
+      </c>
+      <c r="H74" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="J74" s="4" t="n">
         <v>69</v>
       </c>
-      <c r="H74" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" s="4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J74" s="4" t="n">
-        <v>52</v>
-      </c>
       <c r="K74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="24" customHeight="1">
@@ -2288,31 +2288,31 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="4" t="n">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G75" s="4" t="n">
+        <v>109</v>
+      </c>
+      <c r="H75" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J75" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="H75" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="J75" s="4" t="n">
-        <v>65</v>
-      </c>
       <c r="K75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="24" customHeight="1">
@@ -2322,31 +2322,31 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="4" t="n">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F76" s="4" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G76" s="4" t="n">
+        <v>109</v>
+      </c>
+      <c r="H76" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J76" s="4" t="n">
         <v>87</v>
       </c>
-      <c r="H76" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="4" t="n">
-        <v>41</v>
-      </c>
-      <c r="J76" s="4" t="n">
-        <v>65</v>
-      </c>
       <c r="K76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -2397,31 +2397,31 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="4" t="n">
-        <v>486</v>
+        <v>587</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F79" s="4" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>279</v>
+        <v>365</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="24" customHeight="1">
@@ -2431,31 +2431,31 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F80" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K80" s="4" t="n">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="24" customHeight="1">
@@ -2465,31 +2465,31 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="4" t="n">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F81" s="4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24" customHeight="1">
@@ -2499,31 +2499,31 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="4" t="n">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F82" s="4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="24" customHeight="1">
@@ -2533,31 +2533,31 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="4" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24" customHeight="1">
@@ -2567,31 +2567,31 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="n">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F84" s="4" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="H84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="24" customHeight="1">

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -44,7 +44,7 @@
     <t>Survey No.</t>
   </si>
   <si>
-    <t>1 /2/3</t>
+    <t>B 193/1</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -56,25 +56,25 @@
     <t>Soil Type</t>
   </si>
   <si>
-    <t>MIXED</t>
+    <t>HEAVY</t>
   </si>
   <si>
     <t>Next Crop</t>
   </si>
   <si>
-    <t>GINGER</t>
+    <t>SOYABEAN</t>
   </si>
   <si>
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>FURROW IRRIGATION</t>
+    <t>RIVER</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-04-03</t>
+    <t>2024-04-04</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -302,7 +302,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>adfasdf</t>
+    <t>asdasd</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -622,7 +622,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -685,7 +685,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="n">
-        <v>12409</v>
+        <v>12444</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -770,7 +770,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="n">
-        <v>693</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
@@ -796,7 +796,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
@@ -838,7 +838,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -864,7 +864,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
@@ -1130,7 +1130,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="n">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
@@ -1156,7 +1156,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
@@ -1517,17 +1517,17 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4" t="n">
-        <v>301.1</v>
+        <v>124.8</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="n">
-        <v>232.6</v>
+        <v>81.2</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="n">
-        <v>185</v>
+        <v>33.6</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -1539,17 +1539,17 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="n">
-        <v>190.3</v>
+        <v>148.5</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="n">
-        <v>135.7</v>
+        <v>93.9</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="n">
-        <v>108.4</v>
+        <v>66.6</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -1561,17 +1561,17 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="n">
-        <v>80.6</v>
+        <v>74.4</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="n">
-        <v>55.8</v>
+        <v>49.6</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="n">
-        <v>43.4</v>
+        <v>37.2</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -1662,31 +1662,31 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="n">
-        <v>586</v>
+        <v>208</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>458</v>
+        <v>134</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>180</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="24" customHeight="1">
@@ -1696,31 +1696,31 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="24" customHeight="1">
@@ -1730,31 +1730,31 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4" t="n">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1">
@@ -1764,31 +1764,31 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4" t="n">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1">
@@ -1798,31 +1798,31 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4" t="n">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="H59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1">
@@ -1832,31 +1832,31 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="n">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="H60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="K60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -1907,31 +1907,31 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4" t="n">
-        <v>654</v>
+        <v>271</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="F63" s="4" t="n">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>505</v>
+        <v>176</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>402</v>
+        <v>73</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>180</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="24" customHeight="1">
@@ -1941,31 +1941,31 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="4" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="F64" s="4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="24" customHeight="1">
@@ -1975,31 +1975,31 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="n">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F65" s="4" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="24" customHeight="1">
@@ -2009,31 +2009,31 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4" t="n">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F66" s="4" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="H66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1">
@@ -2043,31 +2043,31 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="4" t="n">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="4" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="K67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1">
@@ -2077,31 +2077,31 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4" t="n">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="4" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="H68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -2152,31 +2152,31 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="n">
-        <v>556</v>
+        <v>180</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="F71" s="4" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>437</v>
+        <v>115</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>349</v>
+        <v>27</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>144</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="24" customHeight="1">
@@ -2186,31 +2186,31 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="4" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="24" customHeight="1">
@@ -2220,31 +2220,31 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="4" t="n">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F73" s="4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="H73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="K73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="24" customHeight="1">
@@ -2254,31 +2254,31 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="4" t="n">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F74" s="4" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="H74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="K74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="24" customHeight="1">
@@ -2288,31 +2288,31 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="4" t="n">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="K75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="24" customHeight="1">
@@ -2322,31 +2322,31 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="4" t="n">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F76" s="4" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="H76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="K76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -2397,31 +2397,31 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="4" t="n">
-        <v>587</v>
+        <v>209</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="F79" s="4" t="n">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>459</v>
+        <v>135</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>108</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="24" customHeight="1">
@@ -2431,31 +2431,31 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="F80" s="4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="K80" s="4" t="n">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="24" customHeight="1">
@@ -2465,31 +2465,31 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="4" t="n">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F81" s="4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="H81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24" customHeight="1">
@@ -2499,31 +2499,31 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="4" t="n">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F82" s="4" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="H82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="24" customHeight="1">
@@ -2533,31 +2533,31 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="n">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="4" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="H83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="K83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24" customHeight="1">
@@ -2567,31 +2567,31 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="n">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F84" s="4" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="H84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="K84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="24" customHeight="1">

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -56,19 +56,19 @@
     <t>Soil Type</t>
   </si>
   <si>
-    <t>HEAVY</t>
+    <t>SOFT</t>
   </si>
   <si>
     <t>Next Crop</t>
   </si>
   <si>
-    <t>SOYABEAN</t>
+    <t>SUGAR CANE</t>
   </si>
   <si>
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>RIVER</t>
+    <t>CANAL</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
@@ -302,7 +302,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>asdasd</t>
+    <t>asdad</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -622,7 +622,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -685,7 +685,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="n">
-        <v>12444</v>
+        <v>12450</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1130,7 +1130,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
@@ -1156,7 +1156,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
@@ -1517,17 +1517,17 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4" t="n">
-        <v>124.8</v>
+        <v>302.6</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="n">
-        <v>81.2</v>
+        <v>234</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="n">
-        <v>33.6</v>
+        <v>186.4</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -1539,17 +1539,17 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="n">
-        <v>148.5</v>
+        <v>190.5</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="n">
-        <v>93.9</v>
+        <v>135.9</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="n">
-        <v>66.6</v>
+        <v>108.6</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -1561,17 +1561,17 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="n">
-        <v>74.4</v>
+        <v>82.1</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="n">
-        <v>49.6</v>
+        <v>57.4</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="n">
-        <v>37.2</v>
+        <v>45</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -1662,31 +1662,31 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="n">
-        <v>208</v>
+        <v>588</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>134</v>
+        <v>459</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="24" customHeight="1">
@@ -1696,31 +1696,31 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="24" customHeight="1">
@@ -1730,31 +1730,31 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4" t="n">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F57" s="4" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1">
@@ -1764,31 +1764,31 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4" t="n">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="4" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1">
@@ -1798,31 +1798,31 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4" t="n">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="H59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1">
@@ -1832,31 +1832,31 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="n">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="H60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="K60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -1907,31 +1907,31 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4" t="n">
-        <v>271</v>
+        <v>657</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="F63" s="4" t="n">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>176</v>
+        <v>508</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>73</v>
+        <v>405</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>111</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="24" customHeight="1">
@@ -1941,31 +1941,31 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="4" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="F64" s="4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="24" customHeight="1">
@@ -1975,31 +1975,31 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="n">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F65" s="4" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="24" customHeight="1">
@@ -2009,31 +2009,31 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4" t="n">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F66" s="4" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="H66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1">
@@ -2043,31 +2043,31 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="4" t="n">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="4" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="K67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1">
@@ -2077,31 +2077,31 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4" t="n">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="4" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="H68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -2152,31 +2152,31 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="n">
-        <v>180</v>
+        <v>557</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="F71" s="4" t="n">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>115</v>
+        <v>438</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>27</v>
+        <v>350</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="24" customHeight="1">
@@ -2186,31 +2186,31 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="4" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="24" customHeight="1">
@@ -2220,31 +2220,31 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="4" t="n">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F73" s="4" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="K73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="24" customHeight="1">
@@ -2254,31 +2254,31 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="4" t="n">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F74" s="4" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="K74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="24" customHeight="1">
@@ -2288,31 +2288,31 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="4" t="n">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="K75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="24" customHeight="1">
@@ -2322,31 +2322,31 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="4" t="n">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F76" s="4" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="H76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="K76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -2397,31 +2397,31 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="4" t="n">
-        <v>209</v>
+        <v>589</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="F79" s="4" t="n">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>135</v>
+        <v>460</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>49</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="24" customHeight="1">
@@ -2431,31 +2431,31 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="F80" s="4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G80" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>220</v>
+      </c>
+      <c r="I80" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="H80" s="4" t="n">
-        <v>190</v>
-      </c>
-      <c r="I80" s="4" t="n">
-        <v>7</v>
-      </c>
       <c r="J80" s="4" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K80" s="4" t="n">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="24" customHeight="1">
@@ -2465,31 +2465,31 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="4" t="n">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F81" s="4" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="H81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24" customHeight="1">
@@ -2499,31 +2499,31 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="4" t="n">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F82" s="4" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="H82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="24" customHeight="1">
@@ -2533,31 +2533,31 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="n">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="4" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="H83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="K83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24" customHeight="1">
@@ -2567,31 +2567,31 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="n">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F84" s="4" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="H84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="K84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="24" customHeight="1">

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -6,7 +6,6 @@
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="WOW" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -44,7 +43,7 @@
     <t>Survey No.</t>
   </si>
   <si>
-    <t>B 193/1</t>
+    <t>193 /1</t>
   </si>
   <si>
     <t>Plot no.</t>
@@ -56,7 +55,7 @@
     <t>Soil Type</t>
   </si>
   <si>
-    <t>SOFT</t>
+    <t>HEAVY</t>
   </si>
   <si>
     <t>Next Crop</t>
@@ -68,13 +67,13 @@
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>CANAL</t>
+    <t>RIVER</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-04-04</t>
+    <t>2024-04-07</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -302,7 +301,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>asdad</t>
+    <t>adasd</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -622,7 +621,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -685,7 +684,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="n">
-        <v>12450</v>
+        <v>12548</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -770,7 +769,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
@@ -796,7 +795,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
@@ -838,7 +837,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -864,7 +863,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
@@ -890,7 +889,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
@@ -916,7 +915,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
@@ -958,7 +957,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
@@ -984,7 +983,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
@@ -1010,7 +1009,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
@@ -1052,7 +1051,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
@@ -1078,7 +1077,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
@@ -1104,7 +1103,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
@@ -1130,7 +1129,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
@@ -1156,7 +1155,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
@@ -2913,16 +2912,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -55,25 +55,25 @@
     <t>Soil Type</t>
   </si>
   <si>
-    <t>HEAVY</t>
+    <t>SOFT</t>
   </si>
   <si>
     <t>Next Crop</t>
   </si>
   <si>
-    <t>SUGAR CANE</t>
+    <t>GROUND NUT</t>
   </si>
   <si>
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>RIVER</t>
+    <t>CANAL</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-04-07</t>
+    <t>2024-04-09</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -301,7 +301,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>adasd</t>
+    <t>asd</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -684,7 +684,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="n">
-        <v>12548</v>
+        <v>12579</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -769,7 +769,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
@@ -795,7 +795,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
@@ -837,7 +837,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -863,7 +863,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
@@ -889,7 +889,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
@@ -915,7 +915,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
@@ -957,7 +957,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
@@ -983,7 +983,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
@@ -1009,7 +1009,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
@@ -1051,7 +1051,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
@@ -1077,7 +1077,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
@@ -1103,7 +1103,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
@@ -1129,7 +1129,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
@@ -1155,7 +1155,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
@@ -1516,17 +1516,17 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4" t="n">
-        <v>302.6</v>
+        <v>293</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="n">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="n">
-        <v>186.4</v>
+        <v>178</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -1538,17 +1538,17 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="n">
-        <v>190.5</v>
+        <v>189</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="n">
-        <v>135.9</v>
+        <v>134</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="n">
-        <v>108.6</v>
+        <v>107</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -1560,17 +1560,17 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="n">
-        <v>82.1</v>
+        <v>72</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="n">
-        <v>57.4</v>
+        <v>48</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -1661,31 +1661,31 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="n">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E55" s="4" t="n">
+        <v>158</v>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>315</v>
+      </c>
+      <c r="G55" s="4" t="n">
+        <v>450</v>
+      </c>
+      <c r="H55" s="4" t="n">
+        <v>104</v>
+      </c>
+      <c r="I55" s="4" t="n">
+        <v>224</v>
+      </c>
+      <c r="J55" s="4" t="n">
+        <v>357</v>
+      </c>
+      <c r="K55" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="L55" s="4" t="n">
         <v>178</v>
-      </c>
-      <c r="F55" s="4" t="n">
-        <v>317</v>
-      </c>
-      <c r="G55" s="4" t="n">
-        <v>459</v>
-      </c>
-      <c r="H55" s="4" t="n">
-        <v>124</v>
-      </c>
-      <c r="I55" s="4" t="n">
-        <v>226</v>
-      </c>
-      <c r="J55" s="4" t="n">
-        <v>366</v>
-      </c>
-      <c r="K55" s="4" t="n">
-        <v>97</v>
-      </c>
-      <c r="L55" s="4" t="n">
-        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="24" customHeight="1">
@@ -1695,31 +1695,31 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>31</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="I56" s="4" t="n">
         <v>22</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="24" customHeight="1">
@@ -1729,7 +1729,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -1738,22 +1738,22 @@
         <v>63</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1">
@@ -1763,7 +1763,7 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>63</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1">
@@ -1797,16 +1797,16 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H59" s="4" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>56</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1">
@@ -1831,16 +1831,16 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H60" s="4" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>56</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -1906,31 +1906,31 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4" t="n">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="F63" s="4" t="n">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="24" customHeight="1">
@@ -1940,31 +1940,31 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="F64" s="4" t="n">
         <v>31</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="I64" s="4" t="n">
         <v>22</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="24" customHeight="1">
@@ -1974,7 +1974,7 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -1983,22 +1983,22 @@
         <v>63</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="24" customHeight="1">
@@ -2008,7 +2008,7 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         <v>63</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1">
@@ -2042,16 +2042,16 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="4" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
@@ -2060,13 +2060,13 @@
         <v>56</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1">
@@ -2076,16 +2076,16 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H68" s="4" t="n">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>56</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -2151,31 +2151,31 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="n">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="F71" s="4" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="24" customHeight="1">
@@ -2185,28 +2185,28 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>43</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="L72" s="4" t="n">
         <v>14</v>
@@ -2219,31 +2219,31 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="4" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F73" s="4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="24" customHeight="1">
@@ -2253,31 +2253,31 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="4" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F74" s="4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="24" customHeight="1">
@@ -2287,31 +2287,31 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="4" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="24" customHeight="1">
@@ -2321,31 +2321,31 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="4" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F76" s="4" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -2396,31 +2396,31 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="4" t="n">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="F79" s="4" t="n">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="24" customHeight="1">
@@ -2430,31 +2430,31 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="F80" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K80" s="4" t="n">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="24" customHeight="1">
@@ -2464,31 +2464,31 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="4" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F81" s="4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24" customHeight="1">
@@ -2498,31 +2498,31 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="4" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F82" s="4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="24" customHeight="1">
@@ -2532,31 +2532,31 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="4" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24" customHeight="1">
@@ -2566,31 +2566,31 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F84" s="4" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="24" customHeight="1">
@@ -2644,7 +2644,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -2664,7 +2664,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -2684,7 +2684,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -2724,7 +2724,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -55,25 +55,25 @@
     <t>Soil Type</t>
   </si>
   <si>
-    <t>SOFT</t>
+    <t>HEAVY</t>
   </si>
   <si>
     <t>Next Crop</t>
   </si>
   <si>
-    <t>GROUND NUT</t>
+    <t>SOYABEAN</t>
   </si>
   <si>
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>CANAL</t>
+    <t>RIVER</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-04-09</t>
+    <t>2024-04-27</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -301,7 +301,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>asasdadasddasd</t>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -621,14 +621,14 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="n">
-        <v>12579</v>
+        <v>12607</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -769,7 +769,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
@@ -795,7 +795,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
@@ -837,7 +837,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
@@ -863,7 +863,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
@@ -889,7 +889,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
@@ -915,7 +915,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
@@ -957,7 +957,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
@@ -983,7 +983,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
@@ -1009,7 +1009,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
@@ -1051,7 +1051,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
@@ -1077,7 +1077,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
@@ -1103,7 +1103,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
@@ -1129,7 +1129,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
@@ -1155,7 +1155,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
@@ -1516,17 +1516,17 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="4" t="n">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="n">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -1538,17 +1538,17 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -1560,17 +1560,17 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -1661,31 +1661,31 @@
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="n">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H55" s="4" t="n">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="K55" s="4" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="24" customHeight="1">
@@ -1695,31 +1695,31 @@
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>31</v>
       </c>
       <c r="G56" s="4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" s="4" t="n">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="I56" s="4" t="n">
         <v>22</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K56" s="4" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="24" customHeight="1">
@@ -1729,7 +1729,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E57" s="4" t="n">
         <v>0</v>
@@ -1738,22 +1738,22 @@
         <v>63</v>
       </c>
       <c r="G57" s="4" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J57" s="4" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K57" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="24" customHeight="1">
@@ -1763,7 +1763,7 @@
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="4" t="n">
         <v>0</v>
@@ -1772,22 +1772,22 @@
         <v>63</v>
       </c>
       <c r="G58" s="4" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J58" s="4" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="24" customHeight="1">
@@ -1797,16 +1797,16 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="4" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G59" s="4" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H59" s="4" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>56</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K59" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="24" customHeight="1">
@@ -1831,16 +1831,16 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G60" s="4" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H60" s="4" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>56</v>
       </c>
       <c r="J60" s="4" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K60" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -1906,31 +1906,31 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="4" t="n">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="F63" s="4" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G63" s="4" t="n">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="H63" s="4" t="n">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J63" s="4" t="n">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="K63" s="4" t="n">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="24" customHeight="1">
@@ -1940,31 +1940,31 @@
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="4" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="F64" s="4" t="n">
         <v>31</v>
       </c>
       <c r="G64" s="4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" s="4" t="n">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="I64" s="4" t="n">
         <v>22</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="24" customHeight="1">
@@ -1974,7 +1974,7 @@
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="4" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>0</v>
@@ -1983,22 +1983,22 @@
         <v>63</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="24" customHeight="1">
@@ -2008,7 +2008,7 @@
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="4" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         <v>63</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="24" customHeight="1">
@@ -2042,16 +2042,16 @@
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="4" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H67" s="4" t="n">
         <v>0</v>
@@ -2060,13 +2060,13 @@
         <v>56</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="24" customHeight="1">
@@ -2076,16 +2076,16 @@
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="4" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F68" s="4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H68" s="4" t="n">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>56</v>
       </c>
       <c r="J68" s="4" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K68" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -2151,31 +2151,31 @@
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="4" t="n">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="F71" s="4" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J71" s="4" t="n">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="L71" s="4" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="24" customHeight="1">
@@ -2185,28 +2185,28 @@
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="4" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>43</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K72" s="4" t="n">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="L72" s="4" t="n">
         <v>14</v>
@@ -2219,31 +2219,31 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="4" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F73" s="4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J73" s="4" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K73" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="24" customHeight="1">
@@ -2253,31 +2253,31 @@
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="4" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F74" s="4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K74" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="24" customHeight="1">
@@ -2287,31 +2287,31 @@
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="4" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J75" s="4" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K75" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="24" customHeight="1">
@@ -2321,31 +2321,31 @@
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="4" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F76" s="4" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J76" s="4" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K76" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -2396,31 +2396,31 @@
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="4" t="n">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="F79" s="4" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="24" customHeight="1">
@@ -2430,31 +2430,31 @@
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="F80" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K80" s="4" t="n">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="24" customHeight="1">
@@ -2464,31 +2464,31 @@
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="4" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F81" s="4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="24" customHeight="1">
@@ -2498,31 +2498,31 @@
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="4" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F82" s="4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="24" customHeight="1">
@@ -2532,31 +2532,31 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="4" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="4" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="24" customHeight="1">
@@ -2566,31 +2566,31 @@
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="4" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F84" s="4" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I84" s="4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="24" customHeight="1">
@@ -2644,7 +2644,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
@@ -2664,7 +2664,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -2684,7 +2684,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
@@ -2724,7 +2724,7 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>

--- a/Node/output.xlsx
+++ b/Node/output.xlsx
@@ -67,13 +67,13 @@
     <t>Irrigation Source</t>
   </si>
   <si>
-    <t>RIVER</t>
+    <t>WELL_BORE</t>
   </si>
   <si>
     <t>Date Of Sampling</t>
   </si>
   <si>
-    <t>2024-04-27</t>
+    <t>2024-05-04</t>
   </si>
   <si>
     <t>Lab No.</t>
@@ -301,7 +301,7 @@
     <t>Bhumilabh (tonne/acre)</t>
   </si>
   <si>
-    <t>asasdadasddasd</t>
+    <t/>
   </si>
   <si>
     <t>Soil Test Based Nutrient Recommendations</t>
@@ -621,14 +621,14 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -684,7 +684,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="4" t="n">
-        <v>12607</v>
+        <v>12613</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
